--- a/biology/Botanique/Hovenia/Hovenia.xlsx
+++ b/biology/Botanique/Hovenia/Hovenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hovenia est un genre de plantes à fleurs de la famille des Rhamnaceae. Ce sont des arbres et des arbustes caducs originaires d'Asie. Le raisinier de Chine (Hovenia dulcis) est l'espèce la plus connue du genre.
 Le genre doit son nom au sénateur allemand David Hove (1724-1787), qui aida Carl Peter Thunberg à financer son expédition en Afrique du Sud, à Java et au Japon.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hovenia acerba - syn Hovenia kiukiangensis
 Hovenia dulcis Thunb. - syn Hovenia inaequalis DC.
@@ -548,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
